--- a/Day23.xlsx
+++ b/Day23.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marco/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marco/Documents/Learning/CodingPuzzles/AdventOfCode2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A7D5BF-0F0A-254C-A2BD-F4DF7CB93120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69391E5-D91E-4347-921C-4114DC856E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="500" windowWidth="19660" windowHeight="16940" activeTab="1" xr2:uid="{452B37B4-D109-754E-BFA1-0F7508FDAC48}"/>
+    <workbookView xWindow="10020" yWindow="500" windowWidth="16820" windowHeight="16840" activeTab="1" xr2:uid="{452B37B4-D109-754E-BFA1-0F7508FDAC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="1" r:id="rId1"/>
     <sheet name="Part 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="5">
   <si>
     <t>B</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>Too low</t>
   </si>
 </sst>
 </file>
@@ -413,10 +410,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F009DA4A-632F-E94C-871C-EB149851330D}">
-  <dimension ref="A3:N16"/>
+  <dimension ref="A3:O16"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="214" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="O2" sqref="O1:O1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O16" s="1">
+        <f>SUM(O3:O15)</f>
+        <v>15109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B70013A-DFED-9A47-AFBB-BFDFA4302E68}">
+  <dimension ref="A3:P30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="214" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,10 +800,11 @@
     <col min="10" max="10" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -472,22 +844,30 @@
       <c r="M3" t="s">
         <v>4</v>
       </c>
-      <c r="N3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3" s="1">
+        <f>P2+O3</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
-      <c r="N4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P28" si="0">P3+O4</f>
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -527,11 +907,15 @@
       <c r="M5" t="s">
         <v>4</v>
       </c>
-      <c r="N5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>10040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -542,370 +926,6 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N16" s="1">
-        <f>SUM(N3:N15)</f>
-        <v>15109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B70013A-DFED-9A47-AFBB-BFDFA4302E68}">
-  <dimension ref="A3:P32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="214" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
         <v>3</v>
       </c>
       <c r="G6" t="s">
@@ -923,8 +943,15 @@
       <c r="K6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>700</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>10740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -952,8 +979,15 @@
       <c r="K7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>60</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -981,8 +1015,15 @@
       <c r="K8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>10805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -1010,8 +1051,33 @@
       <c r="K9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>50</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="0"/>
+        <v>10855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>60</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>10915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>5000</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="0"/>
+        <v>15915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1051,16 +1117,30 @@
       <c r="M12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>5000</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="0"/>
+        <v>20915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="M13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="0"/>
+        <v>20922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1100,8 +1180,15 @@
       <c r="M14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>50</v>
+      </c>
+      <c r="P14" s="1">
+        <f>P13+O14</f>
+        <v>20972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -1129,8 +1216,15 @@
       <c r="K15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>200</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="0"/>
+        <v>21172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -1158,6 +1252,13 @@
       <c r="K16" t="s">
         <v>4</v>
       </c>
+      <c r="O16">
+        <v>50</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="0"/>
+        <v>21222</v>
+      </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
@@ -1187,6 +1288,13 @@
       <c r="K17" t="s">
         <v>4</v>
       </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="0"/>
+        <v>21232</v>
+      </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
@@ -1217,10 +1325,108 @@
         <v>4</v>
       </c>
       <c r="N18" s="1"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="P32" t="s">
-        <v>5</v>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="0"/>
+        <v>21242</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>500</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="0"/>
+        <v>21742</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>600</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="0"/>
+        <v>22342</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>2000</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="0"/>
+        <v>24342</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>9</v>
+      </c>
+      <c r="P22" s="1">
+        <f>P21+O22</f>
+        <v>24351</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>700</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="0"/>
+        <v>25051</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>700</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="0"/>
+        <v>25751</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>11000</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="0"/>
+        <v>36751</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>11000</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="0"/>
+        <v>47751</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>3000</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="0"/>
+        <v>50751</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>3000</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="0"/>
+        <v>53751</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O30" s="1">
+        <f>SUM(O3:O28)</f>
+        <v>53751</v>
       </c>
     </row>
   </sheetData>
